--- a/medicine/Enfance/Cercle_magique/Cercle_magique.xlsx
+++ b/medicine/Enfance/Cercle_magique/Cercle_magique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercle magique est une collection de Littérature d'enfance et de jeunesse fondée par Heliane Bernard et Alexandre Faure et publiée par Mango en 2002. , elle met en scène de jeunes héros confrontés à des légendes et mythes du monde entier.
 Tous les textes sont écrits par Jean-Charles Bernardini et chaque roman est illustré par un auteur de bande dessinée réputé..
@@ -512,7 +524,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larmes de la libellule illustré par Edmond Baudoin.
 La course du guépard illustré par Max Cabanes.
